--- a/data/outputs/management/39.xlsx
+++ b/data/outputs/management/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ105"/>
+  <dimension ref="A1:BR105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1524,6 +1532,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1731,6 +1740,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1930,6 +1940,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2129,6 +2140,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2336,6 +2348,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2535,6 +2548,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2734,6 +2748,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>5047859</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2937,6 +2956,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4374710</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3136,6 +3160,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3343,6 +3368,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>63421825</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3542,6 +3572,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3741,6 +3772,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3948,6 +3980,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4538826</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4147,6 +4184,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4350,6 +4388,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>5093220</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4553,6 +4596,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4756,6 +4800,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4951,6 +4996,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5150,6 +5196,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5349,6 +5396,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5548,6 +5596,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5755,6 +5804,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5954,6 +6004,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6157,6 +6208,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6364,6 +6416,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6571,6 +6624,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6770,6 +6824,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6973,6 +7028,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7172,6 +7228,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7375,6 +7432,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4292829</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7578,6 +7640,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7777,6 +7840,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7984,6 +8048,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8183,6 +8248,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8386,6 +8452,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8585,6 +8652,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>2682895</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8784,6 +8856,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8983,6 +9056,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9186,6 +9260,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9389,6 +9464,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9596,6 +9672,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4003877</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9803,6 +9884,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10002,6 +10084,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10209,6 +10292,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10408,6 +10492,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10607,6 +10692,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10802,6 +10888,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11005,6 +11092,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11212,6 +11300,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11411,6 +11500,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11614,6 +11704,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11813,6 +11904,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12016,6 +12108,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12223,6 +12316,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3801467</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12430,6 +12528,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4189270</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12625,6 +12728,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12832,6 +12936,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13039,6 +13144,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13242,6 +13348,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13449,6 +13556,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>3074716</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13648,6 +13760,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13847,6 +13960,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14050,6 +14164,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14249,6 +14364,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14456,6 +14572,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14655,6 +14772,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14854,6 +14972,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>3961836</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15049,6 +15172,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15252,6 +15376,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15451,6 +15576,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15658,6 +15784,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15861,6 +15988,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16064,6 +16192,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16263,6 +16392,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>2786121</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16462,6 +16596,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16661,6 +16796,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16868,6 +17004,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3019699</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17067,6 +17208,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>2868222</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17270,6 +17416,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>3898594</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17469,6 +17620,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17668,6 +17820,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17863,6 +18016,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18070,6 +18224,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4513012</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18273,6 +18432,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18472,6 +18632,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18679,6 +18840,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>2733217</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18878,6 +19044,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19077,6 +19244,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19264,6 +19432,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19471,6 +19640,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>2627605</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19678,6 +19852,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19877,6 +20052,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20076,6 +20252,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20279,6 +20456,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>2856742</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20478,6 +20660,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20681,6 +20864,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20884,6 +21068,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21087,6 +21272,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21286,6 +21472,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21485,6 +21672,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>2682895</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21692,6 +21884,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
